--- a/medicine/Psychotrope/Brunehaut_(brasserie)/Brunehaut_(brasserie).xlsx
+++ b/medicine/Psychotrope/Brunehaut_(brasserie)/Brunehaut_(brasserie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Brunehaut est située à Rongy, village de la commune de Brunehaut en Belgique.
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1890, pendant la période prospère qui suit la révolution industrielle en Belgique[1], ces recettes permettent à la bière de l'abbaye de Saint-Martin de ressusciter à la brasserie Brunehaut[2]. Ce sont plus de quarante bières qui verront ensuite le jour à la brasserie de Brunehaut au cours du siècle suivant. En 1990, la capacité de la brasserie double grâce à la nouvelle salle de brassage construite à 2 km du site d'origine, dans un bâtiment flambant neuf[3].
-En 2007, Marc-Antoine De Mees rachète la brasserie, après sa mise en faillite. Celui-ci a voulu faire en sorte que l'impact environnemental de sa production soit la plus minime possible, avec une utilisation raisonné de la consommation d'eau[4],[5].
-Le 8 juin 2023, la brasserie Léopold 7 et Brunehaut officialisent leur rapprochement[6],[7].
-En 2024, la brasserie lance une nouvelle bière, celle-ci est sans alcool une première pour la Wallonie picarde[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1890, pendant la période prospère qui suit la révolution industrielle en Belgique, ces recettes permettent à la bière de l'abbaye de Saint-Martin de ressusciter à la brasserie Brunehaut. Ce sont plus de quarante bières qui verront ensuite le jour à la brasserie de Brunehaut au cours du siècle suivant. En 1990, la capacité de la brasserie double grâce à la nouvelle salle de brassage construite à 2 km du site d'origine, dans un bâtiment flambant neuf.
+En 2007, Marc-Antoine De Mees rachète la brasserie, après sa mise en faillite. Celui-ci a voulu faire en sorte que l'impact environnemental de sa production soit la plus minime possible, avec une utilisation raisonné de la consommation d'eau,.
+Le 8 juin 2023, la brasserie Léopold 7 et Brunehaut officialisent leur rapprochement,.
+En 2024, la brasserie lance une nouvelle bière, celle-ci est sans alcool une première pour la Wallonie picarde,.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Récompenses, Festivals et visite de la brasserie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2007 et 2008 furent deux années de récompenses pour la brasserie Brunehaut : l'abbaye de Saint-Martin blonde et brune remportèrent 2 médailles d'argent et de bronze à Chicago en 2007. La Mont-St-Aubert gagne la médaille d'argent à la « World Beer Cup » en 2008 (États-Unis) ainsi que la « 2008 Australian International Beer Award » (Melbourne - Australie)[10],[11],[12],[13]. En 2009, l'abbaye de Saint-Martin Triple récidive en Australie avec une médaille de bronze.
-La brasserie Brunehaut est membre de la Confédération Belge des Brasseurs de Belgique[14].
-En 2021, la brasserie obtient la certification B Corp[15],[16],[17].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2007 et 2008 furent deux années de récompenses pour la brasserie Brunehaut : l'abbaye de Saint-Martin blonde et brune remportèrent 2 médailles d'argent et de bronze à Chicago en 2007. La Mont-St-Aubert gagne la médaille d'argent à la « World Beer Cup » en 2008 (États-Unis) ainsi que la « 2008 Australian International Beer Award » (Melbourne - Australie). En 2009, l'abbaye de Saint-Martin Triple récidive en Australie avec une médaille de bronze.
+La brasserie Brunehaut est membre de la Confédération Belge des Brasseurs de Belgique.
+En 2021, la brasserie obtient la certification B Corp.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Emballage et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Brunehaut commercialise ses produits en bouteilles capsulées de 33 cl ou bouchonnées de 75 cl à travers l'Europe, l'Asie, l'Amérique du Nord et du Sud et l'Australie. La brasserie Brunehaut commercialise également ses bières en fût inox de 20 litres.
 </t>
